--- a/_data/ETHUSDT_2h.xlsx
+++ b/_data/ETHUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1726 @@
         <v>4370.1469</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>2512.43</v>
+      </c>
+      <c r="C1169">
+        <v>2552.17</v>
+      </c>
+      <c r="D1169">
+        <v>2493.53</v>
+      </c>
+      <c r="E1169">
+        <v>2524.81</v>
+      </c>
+      <c r="F1169">
+        <v>31913.6786</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>2524.81</v>
+      </c>
+      <c r="C1170">
+        <v>2533.24</v>
+      </c>
+      <c r="D1170">
+        <v>2434.96</v>
+      </c>
+      <c r="E1170">
+        <v>2448.75</v>
+      </c>
+      <c r="F1170">
+        <v>72069.94749999999</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>2448.76</v>
+      </c>
+      <c r="C1171">
+        <v>2476.75</v>
+      </c>
+      <c r="D1171">
+        <v>2431.14</v>
+      </c>
+      <c r="E1171">
+        <v>2466.41</v>
+      </c>
+      <c r="F1171">
+        <v>44556.094</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>2466.42</v>
+      </c>
+      <c r="C1172">
+        <v>2542.19</v>
+      </c>
+      <c r="D1172">
+        <v>2465.21</v>
+      </c>
+      <c r="E1172">
+        <v>2506.94</v>
+      </c>
+      <c r="F1172">
+        <v>86145.0211</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>2506.94</v>
+      </c>
+      <c r="C1173">
+        <v>2522.1</v>
+      </c>
+      <c r="D1173">
+        <v>2506.35</v>
+      </c>
+      <c r="E1173">
+        <v>2518.13</v>
+      </c>
+      <c r="F1173">
+        <v>8186.5858</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>2518.13</v>
+      </c>
+      <c r="C1174">
+        <v>2530.66</v>
+      </c>
+      <c r="D1174">
+        <v>2517.2</v>
+      </c>
+      <c r="E1174">
+        <v>2526</v>
+      </c>
+      <c r="F1174">
+        <v>11082.0663</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>2525.99</v>
+      </c>
+      <c r="C1175">
+        <v>2533.95</v>
+      </c>
+      <c r="D1175">
+        <v>2519.3</v>
+      </c>
+      <c r="E1175">
+        <v>2525.7</v>
+      </c>
+      <c r="F1175">
+        <v>8874.174499999999</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>2525.71</v>
+      </c>
+      <c r="C1176">
+        <v>2527.43</v>
+      </c>
+      <c r="D1176">
+        <v>2518.86</v>
+      </c>
+      <c r="E1176">
+        <v>2523.52</v>
+      </c>
+      <c r="F1176">
+        <v>5292.7652</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>2523.52</v>
+      </c>
+      <c r="C1177">
+        <v>2529.86</v>
+      </c>
+      <c r="D1177">
+        <v>2522.25</v>
+      </c>
+      <c r="E1177">
+        <v>2523.2</v>
+      </c>
+      <c r="F1177">
+        <v>6730.0114</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>2523.2</v>
+      </c>
+      <c r="C1178">
+        <v>2528.19</v>
+      </c>
+      <c r="D1178">
+        <v>2518.17</v>
+      </c>
+      <c r="E1178">
+        <v>2521.01</v>
+      </c>
+      <c r="F1178">
+        <v>8226.167299999999</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>2521.01</v>
+      </c>
+      <c r="C1179">
+        <v>2523.8</v>
+      </c>
+      <c r="D1179">
+        <v>2511.47</v>
+      </c>
+      <c r="E1179">
+        <v>2514</v>
+      </c>
+      <c r="F1179">
+        <v>8022.8428</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>2514</v>
+      </c>
+      <c r="C1180">
+        <v>2529.81</v>
+      </c>
+      <c r="D1180">
+        <v>2513.5</v>
+      </c>
+      <c r="E1180">
+        <v>2525.5</v>
+      </c>
+      <c r="F1180">
+        <v>6750.8298</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>2525.49</v>
+      </c>
+      <c r="C1181">
+        <v>2527.8</v>
+      </c>
+      <c r="D1181">
+        <v>2515.01</v>
+      </c>
+      <c r="E1181">
+        <v>2515.86</v>
+      </c>
+      <c r="F1181">
+        <v>6337.8851</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>2515.87</v>
+      </c>
+      <c r="C1182">
+        <v>2526.3</v>
+      </c>
+      <c r="D1182">
+        <v>2513.8</v>
+      </c>
+      <c r="E1182">
+        <v>2519.19</v>
+      </c>
+      <c r="F1182">
+        <v>9030.292299999999</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>2519.18</v>
+      </c>
+      <c r="C1183">
+        <v>2519.8</v>
+      </c>
+      <c r="D1183">
+        <v>2491.92</v>
+      </c>
+      <c r="E1183">
+        <v>2503.41</v>
+      </c>
+      <c r="F1183">
+        <v>11837.9941</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>2503.42</v>
+      </c>
+      <c r="C1184">
+        <v>2509.82</v>
+      </c>
+      <c r="D1184">
+        <v>2493.42</v>
+      </c>
+      <c r="E1184">
+        <v>2499.8</v>
+      </c>
+      <c r="F1184">
+        <v>10219.3298</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>2499.79</v>
+      </c>
+      <c r="C1185">
+        <v>2512.64</v>
+      </c>
+      <c r="D1185">
+        <v>2493.68</v>
+      </c>
+      <c r="E1185">
+        <v>2509.56</v>
+      </c>
+      <c r="F1185">
+        <v>7567.9041</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>2517.91</v>
+      </c>
+      <c r="C1186">
+        <v>2522.21</v>
+      </c>
+      <c r="D1186">
+        <v>2511.25</v>
+      </c>
+      <c r="E1186">
+        <v>2513.01</v>
+      </c>
+      <c r="F1186">
+        <v>4357.6751</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>2513</v>
+      </c>
+      <c r="C1187">
+        <v>2516.28</v>
+      </c>
+      <c r="D1187">
+        <v>2493.85</v>
+      </c>
+      <c r="E1187">
+        <v>2493.86</v>
+      </c>
+      <c r="F1187">
+        <v>8798.9859</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>2493.85</v>
+      </c>
+      <c r="C1188">
+        <v>2495.77</v>
+      </c>
+      <c r="D1188">
+        <v>2476.44</v>
+      </c>
+      <c r="E1188">
+        <v>2488.74</v>
+      </c>
+      <c r="F1188">
+        <v>13241.3667</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>2488.75</v>
+      </c>
+      <c r="C1189">
+        <v>2491.18</v>
+      </c>
+      <c r="D1189">
+        <v>2458.84</v>
+      </c>
+      <c r="E1189">
+        <v>2464.72</v>
+      </c>
+      <c r="F1189">
+        <v>17906.5523</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>2464.72</v>
+      </c>
+      <c r="C1190">
+        <v>2488.2</v>
+      </c>
+      <c r="D1190">
+        <v>2464.06</v>
+      </c>
+      <c r="E1190">
+        <v>2486.82</v>
+      </c>
+      <c r="F1190">
+        <v>8913.9252</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>2486.82</v>
+      </c>
+      <c r="C1191">
+        <v>2492.88</v>
+      </c>
+      <c r="D1191">
+        <v>2477.4</v>
+      </c>
+      <c r="E1191">
+        <v>2483.88</v>
+      </c>
+      <c r="F1191">
+        <v>10232.5892</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>2483.89</v>
+      </c>
+      <c r="C1192">
+        <v>2484.8</v>
+      </c>
+      <c r="D1192">
+        <v>2459.02</v>
+      </c>
+      <c r="E1192">
+        <v>2477.74</v>
+      </c>
+      <c r="F1192">
+        <v>12135.5817</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>2477.73</v>
+      </c>
+      <c r="C1193">
+        <v>2481</v>
+      </c>
+      <c r="D1193">
+        <v>2453</v>
+      </c>
+      <c r="E1193">
+        <v>2472.47</v>
+      </c>
+      <c r="F1193">
+        <v>14772.4671</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>2472.47</v>
+      </c>
+      <c r="C1194">
+        <v>2489.31</v>
+      </c>
+      <c r="D1194">
+        <v>2438</v>
+      </c>
+      <c r="E1194">
+        <v>2480.83</v>
+      </c>
+      <c r="F1194">
+        <v>33205.8985</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>2480.83</v>
+      </c>
+      <c r="C1195">
+        <v>2487.01</v>
+      </c>
+      <c r="D1195">
+        <v>2466.54</v>
+      </c>
+      <c r="E1195">
+        <v>2476.33</v>
+      </c>
+      <c r="F1195">
+        <v>7681.1675</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>2471.01</v>
+      </c>
+      <c r="C1196">
+        <v>2514.82</v>
+      </c>
+      <c r="D1196">
+        <v>2468.45</v>
+      </c>
+      <c r="E1196">
+        <v>2501.71</v>
+      </c>
+      <c r="F1196">
+        <v>27388.4365</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>2501.71</v>
+      </c>
+      <c r="C1197">
+        <v>2516</v>
+      </c>
+      <c r="D1197">
+        <v>2473.6</v>
+      </c>
+      <c r="E1197">
+        <v>2485.6</v>
+      </c>
+      <c r="F1197">
+        <v>11350.3477</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>2485.6</v>
+      </c>
+      <c r="C1198">
+        <v>2487.29</v>
+      </c>
+      <c r="D1198">
+        <v>2483.37</v>
+      </c>
+      <c r="E1198">
+        <v>2483.37</v>
+      </c>
+      <c r="F1198">
+        <v>339.0585</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>2425.71</v>
+      </c>
+      <c r="C1199">
+        <v>2455.26</v>
+      </c>
+      <c r="D1199">
+        <v>2423.52</v>
+      </c>
+      <c r="E1199">
+        <v>2440</v>
+      </c>
+      <c r="F1199">
+        <v>22078.7136</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>2440</v>
+      </c>
+      <c r="C1200">
+        <v>2451.92</v>
+      </c>
+      <c r="D1200">
+        <v>2431.5</v>
+      </c>
+      <c r="E1200">
+        <v>2450.52</v>
+      </c>
+      <c r="F1200">
+        <v>13252.9433</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>2450.47</v>
+      </c>
+      <c r="C1201">
+        <v>2466.2</v>
+      </c>
+      <c r="D1201">
+        <v>2434.97</v>
+      </c>
+      <c r="E1201">
+        <v>2454.13</v>
+      </c>
+      <c r="F1201">
+        <v>20828.7085</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>2454.14</v>
+      </c>
+      <c r="C1202">
+        <v>2458.64</v>
+      </c>
+      <c r="D1202">
+        <v>2433.18</v>
+      </c>
+      <c r="E1202">
+        <v>2441.14</v>
+      </c>
+      <c r="F1202">
+        <v>17115.1588</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>2441.14</v>
+      </c>
+      <c r="C1203">
+        <v>2520.41</v>
+      </c>
+      <c r="D1203">
+        <v>2438.39</v>
+      </c>
+      <c r="E1203">
+        <v>2516.19</v>
+      </c>
+      <c r="F1203">
+        <v>50841.1618</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>2516.19</v>
+      </c>
+      <c r="C1204">
+        <v>2539.53</v>
+      </c>
+      <c r="D1204">
+        <v>2510.07</v>
+      </c>
+      <c r="E1204">
+        <v>2517.2</v>
+      </c>
+      <c r="F1204">
+        <v>34022.5524</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>2515.81</v>
+      </c>
+      <c r="C1205">
+        <v>2524.67</v>
+      </c>
+      <c r="D1205">
+        <v>2504.4</v>
+      </c>
+      <c r="E1205">
+        <v>2505.21</v>
+      </c>
+      <c r="F1205">
+        <v>19418.608</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>2505.21</v>
+      </c>
+      <c r="C1206">
+        <v>2528</v>
+      </c>
+      <c r="D1206">
+        <v>2492.55</v>
+      </c>
+      <c r="E1206">
+        <v>2513.2</v>
+      </c>
+      <c r="F1206">
+        <v>22224.8158</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>2513.2</v>
+      </c>
+      <c r="C1207">
+        <v>2525</v>
+      </c>
+      <c r="D1207">
+        <v>2505.78</v>
+      </c>
+      <c r="E1207">
+        <v>2522.78</v>
+      </c>
+      <c r="F1207">
+        <v>16458.9591</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>2522.79</v>
+      </c>
+      <c r="C1208">
+        <v>2530.92</v>
+      </c>
+      <c r="D1208">
+        <v>2515.55</v>
+      </c>
+      <c r="E1208">
+        <v>2524.25</v>
+      </c>
+      <c r="F1208">
+        <v>13457.141</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>2524.26</v>
+      </c>
+      <c r="C1209">
+        <v>2564.83</v>
+      </c>
+      <c r="D1209">
+        <v>2522.22</v>
+      </c>
+      <c r="E1209">
+        <v>2544.73</v>
+      </c>
+      <c r="F1209">
+        <v>22941.6806</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>2544.73</v>
+      </c>
+      <c r="C1210">
+        <v>2548.75</v>
+      </c>
+      <c r="D1210">
+        <v>2534.44</v>
+      </c>
+      <c r="E1210">
+        <v>2538.01</v>
+      </c>
+      <c r="F1210">
+        <v>8962.429400000001</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>2538</v>
+      </c>
+      <c r="C1211">
+        <v>2543.65</v>
+      </c>
+      <c r="D1211">
+        <v>2527.63</v>
+      </c>
+      <c r="E1211">
+        <v>2535.55</v>
+      </c>
+      <c r="F1211">
+        <v>11296.2169</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>2535.55</v>
+      </c>
+      <c r="C1212">
+        <v>2553.6</v>
+      </c>
+      <c r="D1212">
+        <v>2514.73</v>
+      </c>
+      <c r="E1212">
+        <v>2516</v>
+      </c>
+      <c r="F1212">
+        <v>16433.9416</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>2516</v>
+      </c>
+      <c r="C1213">
+        <v>2525.2</v>
+      </c>
+      <c r="D1213">
+        <v>2513.39</v>
+      </c>
+      <c r="E1213">
+        <v>2522.14</v>
+      </c>
+      <c r="F1213">
+        <v>8972.3179</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>2522.14</v>
+      </c>
+      <c r="C1214">
+        <v>2523.62</v>
+      </c>
+      <c r="D1214">
+        <v>2512.46</v>
+      </c>
+      <c r="E1214">
+        <v>2519.55</v>
+      </c>
+      <c r="F1214">
+        <v>10410.8633</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>2519.55</v>
+      </c>
+      <c r="C1215">
+        <v>2520.54</v>
+      </c>
+      <c r="D1215">
+        <v>2494.24</v>
+      </c>
+      <c r="E1215">
+        <v>2504.2</v>
+      </c>
+      <c r="F1215">
+        <v>13362.6241</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>2504.2</v>
+      </c>
+      <c r="C1216">
+        <v>2513</v>
+      </c>
+      <c r="D1216">
+        <v>2499.4</v>
+      </c>
+      <c r="E1216">
+        <v>2509.59</v>
+      </c>
+      <c r="F1216">
+        <v>7341.844</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>2509.59</v>
+      </c>
+      <c r="C1217">
+        <v>2519.12</v>
+      </c>
+      <c r="D1217">
+        <v>2459.12</v>
+      </c>
+      <c r="E1217">
+        <v>2465.1</v>
+      </c>
+      <c r="F1217">
+        <v>31111.4653</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>2465.09</v>
+      </c>
+      <c r="C1218">
+        <v>2469.35</v>
+      </c>
+      <c r="D1218">
+        <v>2435.79</v>
+      </c>
+      <c r="E1218">
+        <v>2444.01</v>
+      </c>
+      <c r="F1218">
+        <v>50407.0349</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>2444.01</v>
+      </c>
+      <c r="C1219">
+        <v>2464</v>
+      </c>
+      <c r="D1219">
+        <v>2437.4</v>
+      </c>
+      <c r="E1219">
+        <v>2442.3</v>
+      </c>
+      <c r="F1219">
+        <v>19971.2837</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>2442.3</v>
+      </c>
+      <c r="C1220">
+        <v>2469.87</v>
+      </c>
+      <c r="D1220">
+        <v>2435.83</v>
+      </c>
+      <c r="E1220">
+        <v>2447.6</v>
+      </c>
+      <c r="F1220">
+        <v>21556.8494</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>2447.6</v>
+      </c>
+      <c r="C1221">
+        <v>2470.57</v>
+      </c>
+      <c r="D1221">
+        <v>2447.43</v>
+      </c>
+      <c r="E1221">
+        <v>2464.99</v>
+      </c>
+      <c r="F1221">
+        <v>14847.9122</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>2465</v>
+      </c>
+      <c r="C1222">
+        <v>2465.97</v>
+      </c>
+      <c r="D1222">
+        <v>2411.12</v>
+      </c>
+      <c r="E1222">
+        <v>2425.29</v>
+      </c>
+      <c r="F1222">
+        <v>19080.7766</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>2425.28</v>
+      </c>
+      <c r="C1223">
+        <v>2449.22</v>
+      </c>
+      <c r="D1223">
+        <v>2306.65</v>
+      </c>
+      <c r="E1223">
+        <v>2366.11</v>
+      </c>
+      <c r="F1223">
+        <v>119625.5092</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>2366.11</v>
+      </c>
+      <c r="C1224">
+        <v>2382.48</v>
+      </c>
+      <c r="D1224">
+        <v>2355.73</v>
+      </c>
+      <c r="E1224">
+        <v>2373</v>
+      </c>
+      <c r="F1224">
+        <v>24741.4174</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>2372.99</v>
+      </c>
+      <c r="C1225">
+        <v>2381.45</v>
+      </c>
+      <c r="D1225">
+        <v>2363.56</v>
+      </c>
+      <c r="E1225">
+        <v>2365.24</v>
+      </c>
+      <c r="F1225">
+        <v>19513.8782</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>2365.24</v>
+      </c>
+      <c r="C1226">
+        <v>2414.71</v>
+      </c>
+      <c r="D1226">
+        <v>2365.24</v>
+      </c>
+      <c r="E1226">
+        <v>2401.52</v>
+      </c>
+      <c r="F1226">
+        <v>26205.4716</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>2401.52</v>
+      </c>
+      <c r="C1227">
+        <v>2410.83</v>
+      </c>
+      <c r="D1227">
+        <v>2392.6</v>
+      </c>
+      <c r="E1227">
+        <v>2393.4</v>
+      </c>
+      <c r="F1227">
+        <v>21406.4442</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>2393.4</v>
+      </c>
+      <c r="C1228">
+        <v>2403.4</v>
+      </c>
+      <c r="D1228">
+        <v>2387.15</v>
+      </c>
+      <c r="E1228">
+        <v>2398.77</v>
+      </c>
+      <c r="F1228">
+        <v>15214.1907</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>2398.77</v>
+      </c>
+      <c r="C1229">
+        <v>2413.81</v>
+      </c>
+      <c r="D1229">
+        <v>2394.77</v>
+      </c>
+      <c r="E1229">
+        <v>2404.98</v>
+      </c>
+      <c r="F1229">
+        <v>32001.2858</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>2404.98</v>
+      </c>
+      <c r="C1230">
+        <v>2458.57</v>
+      </c>
+      <c r="D1230">
+        <v>2393.16</v>
+      </c>
+      <c r="E1230">
+        <v>2455.4</v>
+      </c>
+      <c r="F1230">
+        <v>59238.7312</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>2455.39</v>
+      </c>
+      <c r="C1231">
+        <v>2490</v>
+      </c>
+      <c r="D1231">
+        <v>2447.81</v>
+      </c>
+      <c r="E1231">
+        <v>2449.49</v>
+      </c>
+      <c r="F1231">
+        <v>37269.2877</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>2449.49</v>
+      </c>
+      <c r="C1232">
+        <v>2457.16</v>
+      </c>
+      <c r="D1232">
+        <v>2439.2</v>
+      </c>
+      <c r="E1232">
+        <v>2447.63</v>
+      </c>
+      <c r="F1232">
+        <v>9083.3668</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6">
+      <c r="A1233" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1233">
+        <v>2452.15</v>
+      </c>
+      <c r="C1233">
+        <v>2465.63</v>
+      </c>
+      <c r="D1233">
+        <v>2446.01</v>
+      </c>
+      <c r="E1233">
+        <v>2463.13</v>
+      </c>
+      <c r="F1233">
+        <v>8475.692499999999</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6">
+      <c r="A1234" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1234">
+        <v>2463.13</v>
+      </c>
+      <c r="C1234">
+        <v>2469.55</v>
+      </c>
+      <c r="D1234">
+        <v>2443.32</v>
+      </c>
+      <c r="E1234">
+        <v>2450.71</v>
+      </c>
+      <c r="F1234">
+        <v>9534.9791</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6">
+      <c r="A1235" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1235">
+        <v>2450.71</v>
+      </c>
+      <c r="C1235">
+        <v>2466</v>
+      </c>
+      <c r="D1235">
+        <v>2447.17</v>
+      </c>
+      <c r="E1235">
+        <v>2458.36</v>
+      </c>
+      <c r="F1235">
+        <v>14858.0942</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6">
+      <c r="A1236" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1236">
+        <v>2458.36</v>
+      </c>
+      <c r="C1236">
+        <v>2460.29</v>
+      </c>
+      <c r="D1236">
+        <v>2404.28</v>
+      </c>
+      <c r="E1236">
+        <v>2405.55</v>
+      </c>
+      <c r="F1236">
+        <v>36324.0493</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6">
+      <c r="A1237" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1237">
+        <v>2405.56</v>
+      </c>
+      <c r="C1237">
+        <v>2418.47</v>
+      </c>
+      <c r="D1237">
+        <v>2401.77</v>
+      </c>
+      <c r="E1237">
+        <v>2409.64</v>
+      </c>
+      <c r="F1237">
+        <v>17737.6475</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6">
+      <c r="A1238" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1238">
+        <v>2409.64</v>
+      </c>
+      <c r="C1238">
+        <v>2417.2</v>
+      </c>
+      <c r="D1238">
+        <v>2376.72</v>
+      </c>
+      <c r="E1238">
+        <v>2412.4</v>
+      </c>
+      <c r="F1238">
+        <v>24400.8252</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6">
+      <c r="A1239" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1239">
+        <v>2412.41</v>
+      </c>
+      <c r="C1239">
+        <v>2416.35</v>
+      </c>
+      <c r="D1239">
+        <v>2385.65</v>
+      </c>
+      <c r="E1239">
+        <v>2392.21</v>
+      </c>
+      <c r="F1239">
+        <v>15074.2695</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6">
+      <c r="A1240" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1240">
+        <v>2392.2</v>
+      </c>
+      <c r="C1240">
+        <v>2395.91</v>
+      </c>
+      <c r="D1240">
+        <v>2383.16</v>
+      </c>
+      <c r="E1240">
+        <v>2389.54</v>
+      </c>
+      <c r="F1240">
+        <v>13373.9676</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6">
+      <c r="A1241" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1241">
+        <v>2389.53</v>
+      </c>
+      <c r="C1241">
+        <v>2414.58</v>
+      </c>
+      <c r="D1241">
+        <v>2377.01</v>
+      </c>
+      <c r="E1241">
+        <v>2402.32</v>
+      </c>
+      <c r="F1241">
+        <v>28687.4967</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6">
+      <c r="A1242" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1242">
+        <v>2402.33</v>
+      </c>
+      <c r="C1242">
+        <v>2415.15</v>
+      </c>
+      <c r="D1242">
+        <v>2355.8</v>
+      </c>
+      <c r="E1242">
+        <v>2371.43</v>
+      </c>
+      <c r="F1242">
+        <v>56758.5415</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6">
+      <c r="A1243" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1243">
+        <v>2371.43</v>
+      </c>
+      <c r="C1243">
+        <v>2393.8</v>
+      </c>
+      <c r="D1243">
+        <v>2367.34</v>
+      </c>
+      <c r="E1243">
+        <v>2393.8</v>
+      </c>
+      <c r="F1243">
+        <v>19347.289</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6">
+      <c r="A1244" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1244">
+        <v>2393.8</v>
+      </c>
+      <c r="C1244">
+        <v>2395.99</v>
+      </c>
+      <c r="D1244">
+        <v>2348.04</v>
+      </c>
+      <c r="E1244">
+        <v>2363.97</v>
+      </c>
+      <c r="F1244">
+        <v>23842.5083</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6">
+      <c r="A1245" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1245">
+        <v>2363.97</v>
+      </c>
+      <c r="C1245">
+        <v>2378.33</v>
+      </c>
+      <c r="D1245">
+        <v>2350</v>
+      </c>
+      <c r="E1245">
+        <v>2371.84</v>
+      </c>
+      <c r="F1245">
+        <v>16911.6937</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6">
+      <c r="A1246" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1246">
+        <v>2371.85</v>
+      </c>
+      <c r="C1246">
+        <v>2375.17</v>
+      </c>
+      <c r="D1246">
+        <v>2355.4</v>
+      </c>
+      <c r="E1246">
+        <v>2368.81</v>
+      </c>
+      <c r="F1246">
+        <v>11232.7144</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6">
+      <c r="A1247" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1247">
+        <v>2368.81</v>
+      </c>
+      <c r="C1247">
+        <v>2400.48</v>
+      </c>
+      <c r="D1247">
+        <v>2357.6</v>
+      </c>
+      <c r="E1247">
+        <v>2391.42</v>
+      </c>
+      <c r="F1247">
+        <v>17464.3357</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6">
+      <c r="A1248" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1248">
+        <v>2391.43</v>
+      </c>
+      <c r="C1248">
+        <v>2408.4</v>
+      </c>
+      <c r="D1248">
+        <v>2389.42</v>
+      </c>
+      <c r="E1248">
+        <v>2392.63</v>
+      </c>
+      <c r="F1248">
+        <v>15516.1842</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6">
+      <c r="A1249" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1249">
+        <v>2392.63</v>
+      </c>
+      <c r="C1249">
+        <v>2397.35</v>
+      </c>
+      <c r="D1249">
+        <v>2375.28</v>
+      </c>
+      <c r="E1249">
+        <v>2384.27</v>
+      </c>
+      <c r="F1249">
+        <v>12941.9278</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6">
+      <c r="A1250" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1250">
+        <v>2384.26</v>
+      </c>
+      <c r="C1250">
+        <v>2386.06</v>
+      </c>
+      <c r="D1250">
+        <v>2321.21</v>
+      </c>
+      <c r="E1250">
+        <v>2344.45</v>
+      </c>
+      <c r="F1250">
+        <v>44201.8237</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6">
+      <c r="A1251" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1251">
+        <v>2344.44</v>
+      </c>
+      <c r="C1251">
+        <v>2359.36</v>
+      </c>
+      <c r="D1251">
+        <v>2338.57</v>
+      </c>
+      <c r="E1251">
+        <v>2358.32</v>
+      </c>
+      <c r="F1251">
+        <v>20804.5184</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6">
+      <c r="A1252" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B1252">
+        <v>2358.32</v>
+      </c>
+      <c r="C1252">
+        <v>2377.4</v>
+      </c>
+      <c r="D1252">
+        <v>2356.21</v>
+      </c>
+      <c r="E1252">
+        <v>2372.8</v>
+      </c>
+      <c r="F1252">
+        <v>15262.5913</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6">
+      <c r="A1253" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1253">
+        <v>2372.96</v>
+      </c>
+      <c r="C1253">
+        <v>2379.8</v>
+      </c>
+      <c r="D1253">
+        <v>2366.07</v>
+      </c>
+      <c r="E1253">
+        <v>2379.6</v>
+      </c>
+      <c r="F1253">
+        <v>3182.9876</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6">
+      <c r="A1254" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B1254">
+        <v>2363.2</v>
+      </c>
+      <c r="C1254">
+        <v>2366.76</v>
+      </c>
+      <c r="D1254">
+        <v>2352.2</v>
+      </c>
+      <c r="E1254">
+        <v>2364.01</v>
+      </c>
+      <c r="F1254">
+        <v>2266.5073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
